--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="173">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="172">
   <si>
     <t>Table 16: Subjective well-being</t>
   </si>
@@ -1384,11 +1381,9 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1398,36 +1393,36 @@
     </row>
     <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="13">
         <v>3.7948379516601598</v>
@@ -1450,10 +1445,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="16">
         <v>3.4710848331451398</v>
@@ -1476,10 +1471,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="20">
         <v>4.3961148262023899</v>
@@ -1502,10 +1497,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="20">
         <v>3.51178050041199</v>
@@ -1528,10 +1523,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="20">
         <v>3.8691236972808798</v>
@@ -1554,10 +1549,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="20">
         <v>4.9321327209472701</v>
@@ -1580,10 +1575,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="20">
         <v>4.45101022720337</v>
@@ -1606,10 +1601,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="20">
         <v>4.9468007087707502</v>
@@ -1632,10 +1627,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="16">
         <v>4.8379921913146999</v>
@@ -1658,10 +1653,10 @@
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="C12" s="23">
         <v>3.1598021984100302</v>
@@ -1684,10 +1679,10 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="27">
         <v>4.1370679855346699</v>
@@ -1710,10 +1705,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C14" s="20">
         <v>3.7752830982208301</v>
@@ -1736,10 +1731,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="20">
         <v>5.2410778999328604</v>
@@ -1762,10 +1757,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="C16" s="20">
         <v>3.4758620262146001</v>
@@ -1788,10 +1783,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="13">
         <v>4.2507991790771502</v>
@@ -1814,10 +1809,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>41</v>
       </c>
       <c r="C18" s="13">
         <v>5.2126226425170898</v>
@@ -1840,10 +1835,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="C19" s="16">
         <v>4.3110332489013699</v>
@@ -1866,36 +1861,36 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="C21" s="13">
         <v>4.9143934249877903</v>
@@ -1918,36 +1913,36 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="C22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="27">
         <v>4.4544387885502399</v>
@@ -1970,10 +1965,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="20">
         <v>4.6086163520812997</v>
@@ -1996,10 +1991,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="C25" s="20">
         <v>4.3691935539245597</v>
@@ -2022,36 +2017,36 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="C27" s="20">
         <v>4.5492196083068901</v>
@@ -2074,10 +2069,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="C28" s="20">
         <v>4.5465841293334996</v>
@@ -2100,10 +2095,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="C29" s="20">
         <v>4.3390874862670898</v>
@@ -2126,10 +2121,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="C30" s="20">
         <v>6.0153002738952699</v>
@@ -2152,10 +2147,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C31" s="20">
         <v>3.2681522369384801</v>
@@ -2178,36 +2173,36 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="C33" s="20">
         <v>4.6679410934448304</v>
@@ -2222,7 +2217,7 @@
         <v>0.91732281446456998</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="21">
         <v>0.59441655874251997</v>
@@ -2230,10 +2225,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="C34" s="16">
         <v>2.81662249565125</v>
@@ -2248,7 +2243,7 @@
         <v>0.45601108670235002</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="17">
         <v>0.55682265758514005</v>
@@ -2256,10 +2251,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="C35" s="20">
         <v>4.13867282867432</v>
@@ -2282,10 +2277,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C36" s="20">
         <v>3.78568410873413</v>
@@ -2308,10 +2303,10 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C37" s="20">
         <v>4.6409096717834499</v>
@@ -2334,10 +2329,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="27">
         <v>4.3121653199195897</v>
@@ -2360,10 +2355,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="13">
         <v>4.7446274757385298</v>
@@ -2386,10 +2381,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="C40" s="20">
         <v>4.4723968505859402</v>
@@ -2412,10 +2407,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>86</v>
       </c>
       <c r="C41" s="13">
         <v>5.33022212982178</v>
@@ -2438,10 +2433,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="C42" s="13">
         <v>4.1526193618774396</v>
@@ -2464,10 +2459,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="C43" s="20">
         <v>4.8026175498962402</v>
@@ -2490,10 +2485,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="C44" s="20">
         <v>4.7308111190795898</v>
@@ -2516,10 +2511,10 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="27">
         <v>4.7055490811665903</v>
@@ -2542,10 +2537,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="C46" s="20">
         <v>4.4077458381652797</v>
@@ -2568,10 +2563,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="C47" s="20">
         <v>4.7408928871154803</v>
@@ -2594,36 +2589,36 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="C48" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="C49" s="20">
         <v>5.2565035820007298</v>
@@ -2646,10 +2641,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="C50" s="20">
         <v>5.1636271476745597</v>
@@ -2672,10 +2667,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="C51" s="16">
         <v>5.3194832801818901</v>
@@ -2698,10 +2693,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="C52" s="20">
         <v>4.7676844596862802</v>
@@ -2724,36 +2719,36 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>109</v>
-      </c>
       <c r="C53" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="C54" s="20">
         <v>5.12146091461182</v>
@@ -2776,10 +2771,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="C55" s="20">
         <v>4.9879918098449698</v>
@@ -2802,10 +2797,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="C56" s="20">
         <v>5.00354433059693</v>
@@ -2828,10 +2823,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="C57" s="13">
         <v>5.5029482841491699</v>
@@ -2854,10 +2849,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C58" s="20">
         <v>5.4887366294860902</v>
@@ -2880,10 +2875,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C59" s="20">
         <v>3.4473814964294398</v>
@@ -2906,10 +2901,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="C60" s="16">
         <v>4.1794939041137704</v>
@@ -2932,10 +2927,10 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="27">
         <v>4.8759611203120299</v>
@@ -2958,10 +2953,10 @@
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="33">
         <v>4.4983025888602004</v>
@@ -2984,10 +2979,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="33">
         <v>5.9024856242266601</v>
@@ -3010,10 +3005,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="37">
         <v>5.81057410654814</v>
@@ -3036,10 +3031,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="40">
         <v>4.9294316598347301</v>
@@ -3062,10 +3057,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="43">
         <v>5.4758983729760899</v>
@@ -3088,10 +3083,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="40">
         <v>4.4224450839193299</v>
@@ -3114,10 +3109,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="40">
         <v>4.6637298127879303</v>
@@ -3140,10 +3135,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="40">
         <v>3.80553929011027</v>
@@ -3166,10 +3161,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="40">
         <v>4.2493401898278096</v>
@@ -3192,10 +3187,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="40">
         <v>4.8759611203120299</v>
@@ -3218,10 +3213,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="40">
         <v>4.2470204830169704</v>
@@ -3244,10 +3239,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="40">
         <v>4.2953600883483896</v>
@@ -3270,10 +3265,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="40">
         <v>4.7521795272827196</v>
@@ -3296,10 +3291,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="43">
         <v>4.36348533630371</v>
@@ -3322,10 +3317,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C76" s="40">
         <v>5.2974608209398104</v>
@@ -3348,10 +3343,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="40">
         <v>5.7807843901894298</v>
@@ -3374,10 +3369,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="40">
         <v>6.63210845876623</v>
@@ -3400,10 +3395,10 @@
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="43">
         <v>6.7058766641114902</v>
@@ -3426,10 +3421,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="40">
         <v>4.7378838062286404</v>
@@ -3452,10 +3447,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="40">
         <v>5.7257954014672201</v>
@@ -3478,10 +3473,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="40">
         <v>4.4503863453865096</v>
@@ -3504,10 +3499,10 @@
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="43">
         <v>5.9370554504187201</v>
@@ -3530,10 +3525,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="40">
         <v>4.3069960162753196</v>
@@ -3556,10 +3551,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="40">
         <v>3.34463914235433</v>
@@ -3582,10 +3577,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="40">
         <v>4.5877522059849296</v>
@@ -3608,10 +3603,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="40">
         <v>5.2181411286195098</v>
@@ -3634,10 +3629,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="40">
         <v>4.8548019329706804</v>
@@ -3660,10 +3655,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="40">
         <v>5.6058396233452701</v>
@@ -3686,10 +3681,10 @@
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="43">
         <v>6.68739256651505</v>
@@ -3712,10 +3707,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="40">
         <v>4.3134707609812404</v>
@@ -3738,10 +3733,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="40">
         <v>4.4545014169481103</v>
@@ -3764,10 +3759,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="40">
         <v>5.3119583129882804</v>
@@ -3790,10 +3785,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="40">
         <v>5.6953866481780997</v>
@@ -3816,10 +3811,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="40">
         <v>4.0471984744071996</v>
@@ -3842,10 +3837,10 @@
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" s="43">
         <v>5.3974973708391198</v>
@@ -3868,10 +3863,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" s="40">
         <v>4.4416541211745297</v>
@@ -3894,10 +3889,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" s="40">
         <v>4.7103739529848099</v>
@@ -3920,10 +3915,10 @@
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C99" s="43">
         <v>3.9294497966766402</v>
@@ -3956,27 +3951,27 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -3984,27 +3979,27 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +4009,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -520,6 +520,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: World Happiness Report Online Dataset 2021.</t>
   </si>
   <si>
@@ -532,88 +535,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -624,7 +549,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,15 +665,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1368,7 +1284,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3969,18 +3885,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="51" t="s">
         <v>167</v>
       </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -3993,25 +3909,27 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: World Happiness Report Online Dataset 2021.</t>

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
   <si>
     <t>Table 16: Subjective well-being</t>
   </si>
@@ -34,22 +34,22 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Cantril life ladder, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Negative affect, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Positive affect, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Freedom to make life choices, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Generosity, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Social support, most recent measure 2011-20</t>
+    <t>Cantril life ladder, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Negative affect, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Positive affect, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Freedom to make life choices, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Generosity, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Social support, most recent measure 2012-21</t>
   </si>
   <si>
     <t>AGO</t>
@@ -1912,23 +1912,23 @@
       <c r="B25" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="20">
-        <v>4.3691935539245597</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0.18059262633324</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0.57930284738541005</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0.74643945693970004</v>
-      </c>
-      <c r="G25" s="20">
-        <v>-5.7318914681700001E-2</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0.63297325372696001</v>
+      <c r="C25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2251,22 +2251,22 @@
         <v>79</v>
       </c>
       <c r="C38" s="27">
-        <v>4.3121653199195897</v>
+        <v>4.3069809350100403</v>
       </c>
       <c r="D38" s="27">
-        <v>0.30287291854620002</v>
+        <v>0.31398930874738001</v>
       </c>
       <c r="E38" s="27">
-        <v>0.69557895759740995</v>
+        <v>0.70614951307122997</v>
       </c>
       <c r="F38" s="27">
-        <v>0.69148479402065</v>
+        <v>0.68648891557347003</v>
       </c>
       <c r="G38" s="27">
-        <v>8.6230002716180004E-2</v>
+        <v>0.10217988242706</v>
       </c>
       <c r="H38" s="28">
-        <v>0.69555072734752998</v>
+        <v>0.70123958858576996</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2875,22 +2875,22 @@
         <v>124</v>
       </c>
       <c r="C62" s="33">
-        <v>4.4983025888602004</v>
+        <v>4.5010495896035101</v>
       </c>
       <c r="D62" s="33">
-        <v>0.34486387825261</v>
+        <v>0.34835901127217</v>
       </c>
       <c r="E62" s="33">
-        <v>0.67165619259079001</v>
+        <v>0.67362115738240003</v>
       </c>
       <c r="F62" s="33">
-        <v>0.69515286820629996</v>
+        <v>0.69406166419070003</v>
       </c>
       <c r="G62" s="33">
-        <v>6.3634510658199996E-3</v>
+        <v>7.7786147490999996E-3</v>
       </c>
       <c r="H62" s="34">
-        <v>0.68625537119806002</v>
+        <v>0.68738903327191003</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2901,19 +2901,19 @@
         <v>125</v>
       </c>
       <c r="C63" s="33">
-        <v>5.9024856242266601</v>
+        <v>5.8937654735845202</v>
       </c>
       <c r="D63" s="33">
-        <v>0.29446189898417002</v>
+        <v>0.29445539704627</v>
       </c>
       <c r="E63" s="33">
         <v>0.72120975095916995</v>
       </c>
       <c r="F63" s="33">
-        <v>0.82896242954513999</v>
+        <v>0.82816123142154996</v>
       </c>
       <c r="G63" s="33">
-        <v>-4.5271786649000003E-3</v>
+        <v>-4.7972306924999996E-3</v>
       </c>
       <c r="H63" s="34">
         <v>0.85064957885567005</v>
@@ -2979,22 +2979,22 @@
         <v>128</v>
       </c>
       <c r="C66" s="43">
-        <v>5.4758983729760899</v>
+        <v>5.47416517520562</v>
       </c>
       <c r="D66" s="43">
-        <v>0.30987142130827</v>
+        <v>0.31080036394058003</v>
       </c>
       <c r="E66" s="43">
-        <v>0.70596250223043999</v>
+        <v>0.70677966129394998</v>
       </c>
       <c r="F66" s="43">
-        <v>0.78831142356879003</v>
+        <v>0.78775943873020005</v>
       </c>
       <c r="G66" s="43">
-        <v>-1.315839129E-3</v>
+        <v>-1.1224706609000001E-3</v>
       </c>
       <c r="H66" s="44">
-        <v>0.80038892938073003</v>
+        <v>0.80146210678876995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3005,22 +3005,22 @@
         <v>129</v>
       </c>
       <c r="C67" s="40">
-        <v>4.4224450839193299</v>
+        <v>4.4254035022523697</v>
       </c>
       <c r="D67" s="40">
-        <v>0.32697827721896999</v>
+        <v>0.33511081337929</v>
       </c>
       <c r="E67" s="40">
-        <v>0.67858117818831998</v>
+        <v>0.68409664101070999</v>
       </c>
       <c r="F67" s="40">
-        <v>0.70087609949865004</v>
+        <v>0.69834480186303005</v>
       </c>
       <c r="G67" s="40">
-        <v>4.7162948952400004E-3</v>
+        <v>8.3654248703500002E-3</v>
       </c>
       <c r="H67" s="41">
-        <v>0.69552625009888003</v>
+        <v>0.69900141656398995</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3031,22 +3031,22 @@
         <v>130</v>
       </c>
       <c r="C68" s="40">
-        <v>4.6637298127879303</v>
+        <v>4.6771178245544398</v>
       </c>
       <c r="D68" s="40">
-        <v>0.35643223640711003</v>
+        <v>0.36442494595593</v>
       </c>
       <c r="E68" s="40">
-        <v>0.67158895990123002</v>
+        <v>0.67578378319739996</v>
       </c>
       <c r="F68" s="40">
-        <v>0.70224453703217005</v>
+        <v>0.70023567703637002</v>
       </c>
       <c r="G68" s="40">
-        <v>9.5098617867699995E-3</v>
+        <v>1.269218447574E-2</v>
       </c>
       <c r="H68" s="41">
-        <v>0.65224280046380001</v>
+        <v>0.65311868895184</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3135,22 +3135,22 @@
         <v>134</v>
       </c>
       <c r="C72" s="40">
-        <v>4.2470204830169704</v>
+        <v>4.2266583045323696</v>
       </c>
       <c r="D72" s="40">
-        <v>0.30959500798157003</v>
+        <v>0.33109540492296002</v>
       </c>
       <c r="E72" s="40">
-        <v>0.67127794027329002</v>
+        <v>0.68660712242125999</v>
       </c>
       <c r="F72" s="40">
-        <v>0.66686857598169003</v>
+        <v>0.65360676248867999</v>
       </c>
       <c r="G72" s="40">
-        <v>9.4974089413879997E-2</v>
+        <v>0.13304734043777</v>
       </c>
       <c r="H72" s="41">
-        <v>0.69887776885714004</v>
+        <v>0.70986185471217</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3369,19 +3369,19 @@
         <v>143</v>
       </c>
       <c r="C81" s="40">
-        <v>5.7257954014672201</v>
+        <v>5.6594903048346996</v>
       </c>
       <c r="D81" s="40">
-        <v>0.28679689351054999</v>
+        <v>0.28630470440667999</v>
       </c>
       <c r="E81" s="40">
         <v>0.69542780693840001</v>
       </c>
       <c r="F81" s="40">
-        <v>0.81619344154994</v>
+        <v>0.81030523075776995</v>
       </c>
       <c r="G81" s="40">
-        <v>4.6778845911200004E-3</v>
+        <v>3.4878488410900002E-3</v>
       </c>
       <c r="H81" s="41">
         <v>0.85935812837936998</v>
@@ -3395,22 +3395,22 @@
         <v>144</v>
       </c>
       <c r="C82" s="40">
-        <v>4.4503863453865096</v>
+        <v>4.4524682118342502</v>
       </c>
       <c r="D82" s="40">
-        <v>0.34289946034551</v>
+        <v>0.34706117403813003</v>
       </c>
       <c r="E82" s="40">
-        <v>0.67515795379876997</v>
+        <v>0.67761577704013998</v>
       </c>
       <c r="F82" s="40">
-        <v>0.71362835317850004</v>
+        <v>0.71278704282564997</v>
       </c>
       <c r="G82" s="40">
-        <v>1.9053960071970001E-2</v>
+        <v>2.1118091822070001E-2</v>
       </c>
       <c r="H82" s="41">
-        <v>0.67475002631545</v>
+        <v>0.67582122561258995</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3499,22 +3499,22 @@
         <v>148</v>
       </c>
       <c r="C86" s="40">
-        <v>4.5877522059849296</v>
+        <v>4.5986801385879499</v>
       </c>
       <c r="D86" s="40">
-        <v>0.31641280012471001</v>
+        <v>0.32320380881429001</v>
       </c>
       <c r="E86" s="40">
-        <v>0.67088045108885996</v>
+        <v>0.67545933127403002</v>
       </c>
       <c r="F86" s="40">
-        <v>0.68461577523322004</v>
+        <v>0.68152459114789998</v>
       </c>
       <c r="G86" s="40">
-        <v>-1.3831877393599999E-2</v>
+        <v>-1.16575255292E-2</v>
       </c>
       <c r="H86" s="41">
-        <v>0.69265891540617996</v>
+        <v>0.69564319849014</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -3603,19 +3603,19 @@
         <v>152</v>
       </c>
       <c r="C90" s="43">
-        <v>6.68739256651505</v>
+        <v>6.6837128003438302</v>
       </c>
       <c r="D90" s="43">
-        <v>0.25766610742911</v>
+        <v>0.25683281852139001</v>
       </c>
       <c r="E90" s="43">
         <v>0.74765062597063003</v>
       </c>
       <c r="F90" s="43">
-        <v>0.86583443957826001</v>
+        <v>0.86471313767962998</v>
       </c>
       <c r="G90" s="43">
-        <v>-2.4438687124400001E-2</v>
+        <v>-2.5535291112500001E-2</v>
       </c>
       <c r="H90" s="44">
         <v>0.91585633489820995</v>
@@ -3629,22 +3629,22 @@
         <v>153</v>
       </c>
       <c r="C91" s="40">
-        <v>4.3134707609812404</v>
+        <v>4.3115492853625099</v>
       </c>
       <c r="D91" s="40">
-        <v>0.36040075471004002</v>
+        <v>0.36660103499889002</v>
       </c>
       <c r="E91" s="40">
-        <v>0.66324841578800997</v>
+        <v>0.66614309056052001</v>
       </c>
       <c r="F91" s="40">
-        <v>0.68400356074173996</v>
+        <v>0.68185059880387999</v>
       </c>
       <c r="G91" s="40">
-        <v>4.0061898030609999E-2</v>
+        <v>4.3668594797729998E-2</v>
       </c>
       <c r="H91" s="41">
-        <v>0.66050478915374</v>
+        <v>0.66145415244431005</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -3785,22 +3785,22 @@
         <v>159</v>
       </c>
       <c r="C97" s="40">
-        <v>4.4416541211745297</v>
+        <v>4.4438498959396799</v>
       </c>
       <c r="D97" s="40">
-        <v>0.35823909806854998</v>
+        <v>0.36362232448477</v>
       </c>
       <c r="E97" s="40">
-        <v>0.67238231967477002</v>
+        <v>0.67520290974414998</v>
       </c>
       <c r="F97" s="40">
-        <v>0.67330270216746002</v>
+        <v>0.67108643687132996</v>
       </c>
       <c r="G97" s="40">
-        <v>3.9450275638960003E-2</v>
+        <v>4.2571862423490002E-2</v>
       </c>
       <c r="H97" s="41">
-        <v>0.68401373484554995</v>
+        <v>0.68556041609157004</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab16.xlsx
+++ b/AfDD_2022_Annex_Table_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Source: World Happiness Report Online Dataset 2021.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -3927,7 +3927,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
